--- a/app/COVID19master/data/Summary of Sources.xlsx
+++ b/app/COVID19master/data/Summary of Sources.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chaitra Gopalappa\Documents\Box Sync\Paper\COVID-19\COVID19-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID-University/app/COVID19master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F56CA1D-832E-7D4B-994C-C6B8FF83A320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Epidemic-Data" sheetId="1" r:id="rId1"/>
     <sheet name="Epidemic-Sources" sheetId="2" r:id="rId2"/>
     <sheet name="Other-Sources" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="192">
   <si>
     <t>Parameter</t>
   </si>
@@ -532,44 +541,7 @@
     <t>Greenstone, Michael and Nigam, Vishan, Does Social Distancing Matter? (March 30, 2020). University of Chicago, Becker Friedman Institute for Economics Working Paper No. 2020-26. Available at SSRN: https://ssrn.com/abstract=3561244 or http://dx.doi.org/10.2139/ssrn.3561244</t>
   </si>
   <si>
-    <t>Labor force participation rate</t>
-  </si>
-  <si>
-    <t>“Labor Force Participation Rate.” FRED, 8 May 2020, fred.stlouisfed.org/series/CIVPART.</t>
-  </si>
-  <si>
-    <t>“Unemployment Insurance Weekly Claims Data.” Unemployment Insurance Weekly Claims Data, Employment &amp; Training Administration (ETA) - U.S. Department of Labor, oui.doleta.gov/unemploy/claims.asp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment rate projection for July, 2020 by State </t>
-  </si>
-  <si>
-    <t>“Nearly 20 Million Workers Will Likely Be Laid off or Furloughed by July: Updated State Numbers Project Further Job Losses Due to the Coronavirus.” Economic Policy Institute, www.epi.org/blog/nearly-20-million-jobs-lost-by-july-due-to-the-coronavirus/.</t>
-  </si>
-  <si>
-    <t>"How many workers are employed in sectors directly affected by COVID-19 shutdowns, where do they work, and how much do they earn?" United States Bureau of Labor Statistics, https://www.bls.gov/opub/mlr/2020/article/covid-19-shutdowns.htm</t>
-  </si>
-  <si>
     <t>"Medicare Administrative Contractor (MAC) COVID-19 Test Pricing." Centers for Medicare&amp; Medicaid Services, https://www.cms.gov/files/document/mac-covid-19-test-pricing.pdf</t>
-  </si>
-  <si>
-    <t>Government measures by State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"COVID-19 estimate downloads." Institute for Health Metrics and Evaluation, http://www.healthdata.org/covid/data-downloads
- </t>
-  </si>
-  <si>
-    <t>The COVID Tracking Project, "US Historical Data," [Online]. Available: https://covidtracking.com/data/us-daily. [Accessed 03 May 2020].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reported cases of epidemic </t>
-  </si>
-  <si>
-    <t>Median salary for jobs lost due to COVID-19</t>
-  </si>
-  <si>
-    <t>Unemployment rate by State under COVID-19</t>
   </si>
   <si>
     <t>Unit cost testing</t>
@@ -897,13 +869,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1074,24 +1053,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,7 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,46 +1094,46 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,29 +1145,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,26 +1173,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1497,36 +1474,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="23.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="45.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1555,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1609,7 +1586,7 @@
       </c>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="E4" s="12">
         <v>2.2799999999999998</v>
@@ -1631,7 +1608,7 @@
       </c>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="E5" s="1">
         <v>2.68</v>
@@ -1653,7 +1630,7 @@
       </c>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="E6" s="1">
         <v>6.49</v>
@@ -1675,7 +1652,7 @@
       </c>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="E7" s="1">
         <v>2.9</v>
@@ -1697,7 +1674,7 @@
       </c>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="E8" s="1">
         <v>2.92</v>
@@ -1719,7 +1696,7 @@
       </c>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="E9" s="1">
         <v>3.11</v>
@@ -1741,7 +1718,7 @@
       </c>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="E10" s="1">
         <v>2.5499999999999998</v>
@@ -1763,7 +1740,7 @@
       </c>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="E11" s="1">
         <v>1.95</v>
@@ -1785,7 +1762,7 @@
       </c>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="E12" s="1">
         <v>4.08</v>
@@ -1801,7 +1778,7 @@
       </c>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="E13" s="1">
         <v>2.2400000000000002</v>
@@ -1823,7 +1800,7 @@
       </c>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="E14" s="1">
         <v>3.58</v>
@@ -1845,7 +1822,7 @@
       </c>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="E15" s="1">
         <v>2.5</v>
@@ -1867,7 +1844,7 @@
       </c>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="E16" s="1">
         <v>2.2000000000000002</v>
@@ -1883,7 +1860,7 @@
       </c>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="E17" s="1">
         <v>6.47</v>
@@ -1905,7 +1882,7 @@
       </c>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="E18" s="1">
         <v>2.2000000000000002</v>
@@ -1927,7 +1904,7 @@
       </c>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="E19" s="1">
         <v>3.28</v>
@@ -1943,7 +1920,7 @@
       </c>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="E20" s="1">
         <v>5.7</v>
@@ -1965,7 +1942,7 @@
       </c>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="E21" s="14">
         <v>2.2000000000000002</v>
@@ -1981,7 +1958,7 @@
       </c>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="E22" s="14">
         <v>6.3</v>
@@ -1997,7 +1974,7 @@
       </c>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="E23" s="14">
         <v>4.9000000000000004</v>
@@ -2013,7 +1990,7 @@
       </c>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="E24" s="14">
         <v>1.94</v>
@@ -2029,13 +2006,13 @@
       </c>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="E25" s="14"/>
       <c r="J25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
@@ -2061,7 +2038,7 @@
       <c r="J26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="E27" s="1">
         <v>0.52</v>
@@ -2081,7 +2058,7 @@
       <c r="J27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="E28" s="1">
         <v>0.35</v>
@@ -2101,7 +2078,7 @@
       <c r="J28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="16"/>
       <c r="E29" s="17">
         <v>0.315</v>
@@ -2115,12 +2092,12 @@
       <c r="J29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="J30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
         <v>29</v>
       </c>
@@ -2129,7 +2106,7 @@
       <c r="J31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2159,12 +2136,12 @@
       </c>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="8"/>
       <c r="J33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
         <v>35</v>
       </c>
@@ -2173,7 +2150,7 @@
       <c r="J34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
@@ -2195,7 +2172,7 @@
       </c>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2208,14 +2185,14 @@
       <c r="J36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="J37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,7 +2217,7 @@
       <c r="J38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16"/>
       <c r="E39" s="1">
         <v>4.8</v>
@@ -2256,7 +2233,7 @@
       </c>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16"/>
       <c r="E40" s="1">
         <v>4</v>
@@ -2272,7 +2249,7 @@
       </c>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16"/>
       <c r="E41" s="1">
         <v>5.2</v>
@@ -2288,7 +2265,7 @@
       </c>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="16"/>
       <c r="E42" s="1">
         <v>5</v>
@@ -2301,12 +2278,12 @@
       </c>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="16"/>
       <c r="J43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="1:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -2333,7 +2310,7 @@
       </c>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="F45" s="1">
         <v>0.2</v>
@@ -2347,7 +2324,7 @@
       <c r="J45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
       <c r="E46" s="18">
         <v>0.2</v>
@@ -2363,7 +2340,7 @@
       </c>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="E47" s="18">
         <v>0.4</v>
@@ -2379,7 +2356,7 @@
       </c>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="E48" s="18">
         <v>0.34</v>
@@ -2395,7 +2372,7 @@
       </c>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="E49" s="18">
         <v>0.01</v>
@@ -2411,7 +2388,7 @@
       </c>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="E50" s="18">
         <v>0.04</v>
@@ -2427,7 +2404,7 @@
       </c>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="E51" s="18">
         <v>0.3</v>
@@ -2441,12 +2418,12 @@
       </c>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="J52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
         <v>60</v>
       </c>
@@ -2473,25 +2450,25 @@
       </c>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8"/>
       <c r="J54" s="11"/>
       <c r="K54" s="23"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="16"/>
       <c r="J56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -2511,7 +2488,7 @@
       <c r="J57" s="25"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8"/>
       <c r="E58" s="24"/>
       <c r="F58" s="19"/>
@@ -2519,7 +2496,7 @@
       <c r="J58" s="25"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -2544,7 +2521,7 @@
       <c r="J59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="8"/>
       <c r="E60" s="19">
         <v>7</v>
@@ -2560,7 +2537,7 @@
       <c r="J60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:17" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="8"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
@@ -2574,7 +2551,7 @@
       <c r="K61" s="19"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="8"/>
       <c r="E62" s="19">
         <v>10</v>
@@ -2590,7 +2567,7 @@
       <c r="J62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="8"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -2603,7 +2580,7 @@
       <c r="K63" s="19"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="8"/>
       <c r="E64" s="1">
         <v>20.3</v>
@@ -2623,7 +2600,7 @@
       <c r="J64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="8"/>
       <c r="E65" s="1">
         <v>21.2</v>
@@ -2643,7 +2620,7 @@
       <c r="J65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="8"/>
       <c r="E66" s="1">
         <v>17.5</v>
@@ -2663,7 +2640,7 @@
       <c r="J66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8"/>
       <c r="E67" s="1">
         <v>19.100000000000001</v>
@@ -2683,7 +2660,7 @@
       <c r="J67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="8"/>
       <c r="E68" s="1">
         <v>19.2</v>
@@ -2703,7 +2680,7 @@
       <c r="J68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="8"/>
       <c r="E69" s="1">
         <v>19.2</v>
@@ -2723,7 +2700,7 @@
       <c r="J69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8"/>
       <c r="E70" s="1">
         <v>21.6</v>
@@ -2743,7 +2720,7 @@
       <c r="J70" s="11"/>
       <c r="Q70" s="11"/>
     </row>
-    <row r="71" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="8"/>
       <c r="E71" s="1">
         <v>22.4</v>
@@ -2763,7 +2740,7 @@
       <c r="J71" s="11"/>
       <c r="Q71" s="11"/>
     </row>
-    <row r="72" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="8"/>
       <c r="E72" s="1">
         <v>22.9</v>
@@ -2783,7 +2760,7 @@
       <c r="J72" s="11"/>
       <c r="Q72" s="11"/>
     </row>
-    <row r="73" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="8"/>
       <c r="E73" s="1">
         <v>22.5</v>
@@ -2803,7 +2780,7 @@
       <c r="J73" s="11"/>
       <c r="Q73" s="11"/>
     </row>
-    <row r="74" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8"/>
       <c r="E74" s="1">
         <v>20.100000000000001</v>
@@ -2823,7 +2800,7 @@
       <c r="J74" s="11"/>
       <c r="Q74" s="11"/>
     </row>
-    <row r="75" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="8"/>
       <c r="E75" s="1">
         <v>20.3</v>
@@ -2843,7 +2820,7 @@
       <c r="J75" s="11"/>
       <c r="Q75" s="11"/>
     </row>
-    <row r="76" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="8"/>
       <c r="E76" s="1">
         <v>28.3</v>
@@ -2863,7 +2840,7 @@
       <c r="J76" s="11"/>
       <c r="Q76" s="11"/>
     </row>
-    <row r="77" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="8"/>
       <c r="E77" s="1">
         <v>19.3</v>
@@ -2883,7 +2860,7 @@
       <c r="J77" s="11"/>
       <c r="Q77" s="11"/>
     </row>
-    <row r="78" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="8"/>
       <c r="E78" s="1">
         <v>21.2</v>
@@ -2903,7 +2880,7 @@
       <c r="J78" s="11"/>
       <c r="Q78" s="11"/>
     </row>
-    <row r="79" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8"/>
       <c r="E79" s="1">
         <v>21.2</v>
@@ -2923,12 +2900,12 @@
       <c r="J79" s="11"/>
       <c r="Q79" s="11"/>
     </row>
-    <row r="80" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="8"/>
       <c r="J80" s="11"/>
       <c r="Q80" s="11"/>
     </row>
-    <row r="81" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="16" t="s">
         <v>76</v>
       </c>
@@ -2937,7 +2914,7 @@
       <c r="J81" s="11"/>
       <c r="Q81" s="11"/>
     </row>
-    <row r="82" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
@@ -2964,12 +2941,12 @@
       </c>
       <c r="Q82" s="11"/>
     </row>
-    <row r="83" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="8"/>
       <c r="J83" s="11"/>
       <c r="Q83" s="11"/>
     </row>
-    <row r="84" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -2994,12 +2971,12 @@
       <c r="J84" s="11"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="8"/>
       <c r="J85" s="11"/>
       <c r="Q85" s="11"/>
     </row>
-    <row r="86" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -3009,7 +2986,7 @@
       <c r="J86" s="11"/>
       <c r="Q86" s="11"/>
     </row>
-    <row r="87" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>86</v>
       </c>
@@ -3043,7 +3020,7 @@
       </c>
       <c r="Q87" s="11"/>
     </row>
-    <row r="88" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="15"/>
       <c r="D88" s="9" t="s">
         <v>96</v>
@@ -3077,7 +3054,7 @@
       </c>
       <c r="Q88" s="21"/>
     </row>
-    <row r="89" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="15"/>
       <c r="D89" s="9" t="s">
         <v>98</v>
@@ -3111,7 +3088,7 @@
       </c>
       <c r="Q89" s="21"/>
     </row>
-    <row r="90" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="15"/>
       <c r="D90" s="9" t="s">
         <v>102</v>
@@ -3145,7 +3122,7 @@
       </c>
       <c r="Q90" s="21"/>
     </row>
-    <row r="91" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="15"/>
       <c r="D91" s="9" t="s">
         <v>106</v>
@@ -3179,7 +3156,7 @@
       </c>
       <c r="Q91" s="21"/>
     </row>
-    <row r="92" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="15"/>
       <c r="D92" s="9" t="s">
         <v>110</v>
@@ -3214,7 +3191,7 @@
       </c>
       <c r="Q92" s="21"/>
     </row>
-    <row r="93" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="15"/>
       <c r="D93" s="9" t="s">
         <v>114</v>
@@ -3249,7 +3226,7 @@
       </c>
       <c r="Q93" s="21"/>
     </row>
-    <row r="94" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="15"/>
       <c r="D94" s="9" t="s">
         <v>118</v>
@@ -3283,7 +3260,7 @@
       </c>
       <c r="Q94" s="21"/>
     </row>
-    <row r="95" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="15"/>
       <c r="D95" s="30" t="s">
         <v>122</v>
@@ -3313,7 +3290,7 @@
       </c>
       <c r="Q95" s="21"/>
     </row>
-    <row r="96" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="15"/>
       <c r="D96" s="30"/>
       <c r="E96" s="27"/>
@@ -3327,7 +3304,7 @@
       <c r="P96" s="30"/>
       <c r="Q96" s="21"/>
     </row>
-    <row r="97" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="16" t="s">
         <v>126</v>
       </c>
@@ -3341,7 +3318,7 @@
       <c r="J97" s="11"/>
       <c r="Q97" s="11"/>
     </row>
-    <row r="98" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>127</v>
       </c>
@@ -3359,17 +3336,17 @@
       </c>
       <c r="J98" s="11"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="33" t="s">
+      <c r="M98" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="N98" s="33"/>
+      <c r="N98" s="47"/>
       <c r="O98" s="2"/>
-      <c r="P98" s="33" t="s">
+      <c r="P98" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="Q98" s="34"/>
-    </row>
-    <row r="99" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q98" s="48"/>
+    </row>
+    <row r="99" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>133</v>
       </c>
@@ -3383,7 +3360,7 @@
       <c r="E99" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F99" s="35"/>
+      <c r="F99" s="33"/>
       <c r="J99" s="11"/>
       <c r="K99" s="2" t="s">
         <v>134</v>
@@ -3403,11 +3380,11 @@
       <c r="P99" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q99" s="36" t="s">
+      <c r="Q99" s="34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="8"/>
       <c r="C100" s="1">
         <v>0</v>
@@ -3418,7 +3395,7 @@
       <c r="E100" s="1">
         <v>2</v>
       </c>
-      <c r="F100" s="35"/>
+      <c r="F100" s="33"/>
       <c r="J100" s="11"/>
       <c r="K100" s="1">
         <v>0</v>
@@ -3442,7 +3419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="8"/>
       <c r="C101" s="1">
         <v>10</v>
@@ -3453,7 +3430,7 @@
       <c r="E101" s="1">
         <v>1.8</v>
       </c>
-      <c r="F101" s="35"/>
+      <c r="F101" s="33"/>
       <c r="J101" s="11"/>
       <c r="K101" s="1">
         <v>10</v>
@@ -3477,7 +3454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="8"/>
       <c r="C102" s="1">
         <v>20</v>
@@ -3488,7 +3465,7 @@
       <c r="E102" s="1">
         <v>2.5</v>
       </c>
-      <c r="F102" s="35"/>
+      <c r="F102" s="33"/>
       <c r="J102" s="11"/>
       <c r="K102" s="1">
         <v>20</v>
@@ -3512,7 +3489,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="8"/>
       <c r="C103" s="1">
         <v>30</v>
@@ -3523,7 +3500,7 @@
       <c r="E103" s="1">
         <v>3.7</v>
       </c>
-      <c r="F103" s="35"/>
+      <c r="F103" s="33"/>
       <c r="J103" s="11"/>
       <c r="K103" s="1">
         <v>30</v>
@@ -3547,7 +3524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="8"/>
       <c r="C104" s="1">
         <v>40</v>
@@ -3558,7 +3535,7 @@
       <c r="E104" s="1">
         <v>3.9</v>
       </c>
-      <c r="F104" s="35"/>
+      <c r="F104" s="33"/>
       <c r="J104" s="11"/>
       <c r="K104" s="1">
         <v>40</v>
@@ -3582,7 +3559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="8"/>
       <c r="C105" s="1">
         <v>50</v>
@@ -3593,7 +3570,7 @@
       <c r="E105" s="1">
         <v>3.8</v>
       </c>
-      <c r="F105" s="35"/>
+      <c r="F105" s="33"/>
       <c r="J105" s="11"/>
       <c r="K105" s="1">
         <v>50</v>
@@ -3617,7 +3594,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="8"/>
       <c r="C106" s="1">
         <v>60</v>
@@ -3628,7 +3605,7 @@
       <c r="E106" s="1">
         <v>4.3</v>
       </c>
-      <c r="F106" s="35"/>
+      <c r="F106" s="33"/>
       <c r="J106" s="11"/>
       <c r="K106" s="1">
         <v>60</v>
@@ -3652,7 +3629,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="8"/>
       <c r="C107" s="1">
         <v>70</v>
@@ -3663,7 +3640,7 @@
       <c r="E107" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F107" s="35"/>
+      <c r="F107" s="33"/>
       <c r="J107" s="11"/>
       <c r="K107" s="1">
         <v>70</v>
@@ -3687,7 +3664,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="8"/>
       <c r="C108" s="1">
         <v>80</v>
@@ -3698,7 +3675,7 @@
       <c r="E108" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F108" s="35"/>
+      <c r="F108" s="33"/>
       <c r="J108" s="11"/>
       <c r="K108" s="1">
         <v>80</v>
@@ -3722,7 +3699,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="8"/>
       <c r="C109" s="1">
         <v>90</v>
@@ -3756,7 +3733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="8"/>
       <c r="C110" s="1" t="s">
         <v>142</v>
@@ -3773,12 +3750,12 @@
       <c r="J110" s="11"/>
       <c r="Q110" s="11"/>
     </row>
-    <row r="111" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="8"/>
       <c r="J111" s="11"/>
       <c r="Q111" s="11"/>
     </row>
-    <row r="112" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>143</v>
       </c>
@@ -3797,7 +3774,7 @@
       <c r="J112" s="11"/>
       <c r="Q112" s="11"/>
     </row>
-    <row r="113" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>133</v>
       </c>
@@ -3813,13 +3790,13 @@
         <v>Male</v>
       </c>
       <c r="J113" s="11"/>
-      <c r="M113" s="33" t="s">
+      <c r="M113" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="N113" s="33"/>
+      <c r="N113" s="47"/>
       <c r="Q113" s="11"/>
     </row>
-    <row r="114" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="8"/>
       <c r="C114" s="1">
         <v>0</v>
@@ -3827,7 +3804,7 @@
       <c r="D114" s="1">
         <v>9</v>
       </c>
-      <c r="E114" s="37">
+      <c r="E114" s="35">
         <f t="shared" ref="E114:E122" si="2">M115</f>
         <v>1</v>
       </c>
@@ -3846,7 +3823,7 @@
       </c>
       <c r="Q114" s="11"/>
     </row>
-    <row r="115" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="8"/>
       <c r="C115" s="1">
         <v>10</v>
@@ -3854,7 +3831,7 @@
       <c r="D115" s="1">
         <v>19</v>
       </c>
-      <c r="E115" s="37">
+      <c r="E115" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -3865,17 +3842,17 @@
       <c r="L115" s="1">
         <v>9</v>
       </c>
-      <c r="M115" s="37">
+      <c r="M115" s="35">
         <f>1-M100/P100</f>
         <v>1</v>
       </c>
-      <c r="N115" s="37">
+      <c r="N115" s="35">
         <f>1-N100/Q100</f>
         <v>1</v>
       </c>
       <c r="Q115" s="11"/>
     </row>
-    <row r="116" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="8"/>
       <c r="C116" s="1">
         <v>20</v>
@@ -3883,7 +3860,7 @@
       <c r="D116" s="1">
         <v>29</v>
       </c>
-      <c r="E116" s="37">
+      <c r="E116" s="35">
         <f t="shared" si="2"/>
         <v>0.9285714285714286</v>
       </c>
@@ -3894,17 +3871,17 @@
       <c r="L116" s="1">
         <v>19</v>
       </c>
-      <c r="M116" s="37">
+      <c r="M116" s="35">
         <f t="shared" ref="M116:N123" si="3">1-M101/P101</f>
         <v>1</v>
       </c>
-      <c r="N116" s="37">
+      <c r="N116" s="35">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q116" s="11"/>
     </row>
-    <row r="117" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="8"/>
       <c r="C117" s="1">
         <v>30</v>
@@ -3912,7 +3889,7 @@
       <c r="D117" s="1">
         <v>39</v>
       </c>
-      <c r="E117" s="37">
+      <c r="E117" s="35">
         <f t="shared" si="2"/>
         <v>0.95384615384615379</v>
       </c>
@@ -3923,17 +3900,17 @@
       <c r="L117" s="1">
         <v>29</v>
       </c>
-      <c r="M117" s="37">
+      <c r="M117" s="35">
         <f t="shared" si="3"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="N117" s="37">
+      <c r="N117" s="35">
         <f t="shared" si="3"/>
         <v>0.98181818181818181</v>
       </c>
       <c r="Q117" s="11"/>
     </row>
-    <row r="118" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="8"/>
       <c r="C118" s="1">
         <v>40</v>
@@ -3941,7 +3918,7 @@
       <c r="D118" s="1">
         <v>49</v>
       </c>
-      <c r="E118" s="37">
+      <c r="E118" s="35">
         <f t="shared" si="2"/>
         <v>0.91845493562231761</v>
       </c>
@@ -3952,17 +3929,17 @@
       <c r="L118" s="1">
         <v>39</v>
       </c>
-      <c r="M118" s="37">
+      <c r="M118" s="35">
         <f t="shared" si="3"/>
         <v>0.95384615384615379</v>
       </c>
-      <c r="N118" s="37">
+      <c r="N118" s="35">
         <f t="shared" si="3"/>
         <v>0.97530864197530864</v>
       </c>
       <c r="Q118" s="11"/>
     </row>
-    <row r="119" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="8"/>
       <c r="C119" s="1">
         <v>50</v>
@@ -3970,7 +3947,7 @@
       <c r="D119" s="1">
         <v>59</v>
       </c>
-      <c r="E119" s="37">
+      <c r="E119" s="35">
         <f t="shared" si="2"/>
         <v>0.8776758409785933</v>
       </c>
@@ -3981,17 +3958,17 @@
       <c r="L119" s="1">
         <v>49</v>
       </c>
-      <c r="M119" s="37">
+      <c r="M119" s="35">
         <f t="shared" si="3"/>
         <v>0.91845493562231761</v>
       </c>
-      <c r="N119" s="37">
+      <c r="N119" s="35">
         <f t="shared" si="3"/>
         <v>0.97478991596638653</v>
       </c>
       <c r="Q119" s="11"/>
     </row>
-    <row r="120" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="8"/>
       <c r="C120" s="1">
         <v>60</v>
@@ -3999,7 +3976,7 @@
       <c r="D120" s="1">
         <v>69</v>
       </c>
-      <c r="E120" s="37">
+      <c r="E120" s="35">
         <f t="shared" si="2"/>
         <v>0.81333333333333335</v>
       </c>
@@ -4010,17 +3987,17 @@
       <c r="L120" s="1">
         <v>59</v>
       </c>
-      <c r="M120" s="37">
+      <c r="M120" s="35">
         <f t="shared" si="3"/>
         <v>0.8776758409785933</v>
       </c>
-      <c r="N120" s="37">
+      <c r="N120" s="35">
         <f t="shared" si="3"/>
         <v>0.93085106382978722</v>
       </c>
       <c r="Q120" s="11"/>
     </row>
-    <row r="121" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="8"/>
       <c r="C121" s="1">
         <v>70</v>
@@ -4028,7 +4005,7 @@
       <c r="D121" s="1">
         <v>79</v>
       </c>
-      <c r="E121" s="37">
+      <c r="E121" s="35">
         <f t="shared" si="2"/>
         <v>0.6417322834645669</v>
       </c>
@@ -4039,17 +4016,17 @@
       <c r="L121" s="1">
         <v>69</v>
       </c>
-      <c r="M121" s="37">
+      <c r="M121" s="35">
         <f t="shared" si="3"/>
         <v>0.81333333333333335</v>
       </c>
-      <c r="N121" s="37">
+      <c r="N121" s="35">
         <f t="shared" si="3"/>
         <v>0.87982832618025753</v>
       </c>
       <c r="Q121" s="11"/>
     </row>
-    <row r="122" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="8"/>
       <c r="C122" s="1">
         <v>80</v>
@@ -4057,7 +4034,7 @@
       <c r="D122" s="1">
         <v>89</v>
       </c>
-      <c r="E122" s="37">
+      <c r="E122" s="35">
         <f t="shared" si="2"/>
         <v>0.3935483870967742</v>
       </c>
@@ -4068,17 +4045,17 @@
       <c r="L122" s="1">
         <v>79</v>
       </c>
-      <c r="M122" s="37">
+      <c r="M122" s="35">
         <f t="shared" si="3"/>
         <v>0.6417322834645669</v>
       </c>
-      <c r="N122" s="37">
+      <c r="N122" s="35">
         <f t="shared" si="3"/>
         <v>0.72588832487309651</v>
       </c>
       <c r="Q122" s="11"/>
     </row>
-    <row r="123" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="8"/>
       <c r="C123" s="1">
         <v>90</v>
@@ -4086,7 +4063,7 @@
       <c r="D123" s="1">
         <v>100</v>
       </c>
-      <c r="E123" s="37">
+      <c r="E123" s="35">
         <f>M124</f>
         <v>0.36363636363636365</v>
       </c>
@@ -4097,19 +4074,19 @@
       <c r="L123" s="1">
         <v>89</v>
       </c>
-      <c r="M123" s="37">
+      <c r="M123" s="35">
         <f t="shared" si="3"/>
         <v>0.3935483870967742</v>
       </c>
-      <c r="N123" s="37">
+      <c r="N123" s="35">
         <f t="shared" si="3"/>
         <v>0.51898734177215189</v>
       </c>
       <c r="Q123" s="11"/>
     </row>
-    <row r="124" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="8"/>
-      <c r="E124" s="37"/>
+      <c r="E124" s="35"/>
       <c r="J124" s="11"/>
       <c r="K124" s="1">
         <v>90</v>
@@ -4117,17 +4094,17 @@
       <c r="L124" s="1">
         <v>100</v>
       </c>
-      <c r="M124" s="37">
+      <c r="M124" s="35">
         <f>1-M109/P109</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="N124" s="37">
+      <c r="N124" s="35">
         <f>1-N109/Q109</f>
         <v>0.5357142857142857</v>
       </c>
       <c r="Q124" s="11"/>
     </row>
-    <row r="125" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="8"/>
       <c r="C125" s="1" t="s">
         <v>134</v>
@@ -4135,7 +4112,7 @@
       <c r="D125" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E125" s="38" t="str">
+      <c r="E125" s="36" t="str">
         <f t="shared" ref="E125:E135" si="4">N114</f>
         <v>Female</v>
       </c>
@@ -4148,7 +4125,7 @@
       <c r="J125" s="11"/>
       <c r="Q125" s="11"/>
     </row>
-    <row r="126" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="8"/>
       <c r="C126" s="1">
         <v>0</v>
@@ -4156,14 +4133,14 @@
       <c r="D126" s="1">
         <v>9</v>
       </c>
-      <c r="E126" s="37">
+      <c r="E126" s="35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J126" s="11"/>
       <c r="Q126" s="11"/>
     </row>
-    <row r="127" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="8"/>
       <c r="C127" s="1">
         <v>10</v>
@@ -4171,14 +4148,14 @@
       <c r="D127" s="1">
         <v>19</v>
       </c>
-      <c r="E127" s="37">
+      <c r="E127" s="35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J127" s="11"/>
       <c r="Q127" s="11"/>
     </row>
-    <row r="128" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="8"/>
       <c r="C128" s="1">
         <v>20</v>
@@ -4186,14 +4163,14 @@
       <c r="D128" s="1">
         <v>29</v>
       </c>
-      <c r="E128" s="37">
+      <c r="E128" s="35">
         <f t="shared" si="4"/>
         <v>0.98181818181818181</v>
       </c>
       <c r="J128" s="11"/>
       <c r="Q128" s="11"/>
     </row>
-    <row r="129" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="8"/>
       <c r="C129" s="1">
         <v>30</v>
@@ -4201,14 +4178,14 @@
       <c r="D129" s="1">
         <v>39</v>
       </c>
-      <c r="E129" s="37">
+      <c r="E129" s="35">
         <f t="shared" si="4"/>
         <v>0.97530864197530864</v>
       </c>
       <c r="J129" s="11"/>
       <c r="Q129" s="11"/>
     </row>
-    <row r="130" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="8"/>
       <c r="C130" s="1">
         <v>40</v>
@@ -4216,14 +4193,14 @@
       <c r="D130" s="1">
         <v>49</v>
       </c>
-      <c r="E130" s="37">
+      <c r="E130" s="35">
         <f t="shared" si="4"/>
         <v>0.97478991596638653</v>
       </c>
       <c r="J130" s="11"/>
       <c r="Q130" s="11"/>
     </row>
-    <row r="131" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="8"/>
       <c r="C131" s="1">
         <v>50</v>
@@ -4231,14 +4208,14 @@
       <c r="D131" s="1">
         <v>59</v>
       </c>
-      <c r="E131" s="37">
+      <c r="E131" s="35">
         <f t="shared" si="4"/>
         <v>0.93085106382978722</v>
       </c>
       <c r="J131" s="11"/>
       <c r="Q131" s="11"/>
     </row>
-    <row r="132" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="8"/>
       <c r="C132" s="1">
         <v>60</v>
@@ -4246,14 +4223,14 @@
       <c r="D132" s="1">
         <v>69</v>
       </c>
-      <c r="E132" s="37">
+      <c r="E132" s="35">
         <f t="shared" si="4"/>
         <v>0.87982832618025753</v>
       </c>
       <c r="J132" s="11"/>
       <c r="Q132" s="11"/>
     </row>
-    <row r="133" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="8"/>
       <c r="C133" s="1">
         <v>70</v>
@@ -4261,14 +4238,14 @@
       <c r="D133" s="1">
         <v>79</v>
       </c>
-      <c r="E133" s="37">
+      <c r="E133" s="35">
         <f t="shared" si="4"/>
         <v>0.72588832487309651</v>
       </c>
       <c r="J133" s="11"/>
       <c r="Q133" s="11"/>
     </row>
-    <row r="134" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="8"/>
       <c r="C134" s="1">
         <v>80</v>
@@ -4276,14 +4253,14 @@
       <c r="D134" s="1">
         <v>89</v>
       </c>
-      <c r="E134" s="37">
+      <c r="E134" s="35">
         <f t="shared" si="4"/>
         <v>0.51898734177215189</v>
       </c>
       <c r="J134" s="11"/>
       <c r="Q134" s="11"/>
     </row>
-    <row r="135" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="8"/>
       <c r="C135" s="1">
         <v>90</v>
@@ -4291,20 +4268,20 @@
       <c r="D135" s="1">
         <v>100</v>
       </c>
-      <c r="E135" s="37">
+      <c r="E135" s="35">
         <f t="shared" si="4"/>
         <v>0.5357142857142857</v>
       </c>
       <c r="J135" s="11"/>
       <c r="Q135" s="11"/>
     </row>
-    <row r="136" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="8"/>
-      <c r="E136" s="37"/>
+      <c r="E136" s="35"/>
       <c r="J136" s="11"/>
       <c r="Q136" s="11"/>
     </row>
-    <row r="137" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
@@ -4323,7 +4300,7 @@
       <c r="J137" s="11"/>
       <c r="Q137" s="11"/>
     </row>
-    <row r="138" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>133</v>
       </c>
@@ -4340,7 +4317,7 @@
       <c r="J138" s="11"/>
       <c r="Q138" s="11"/>
     </row>
-    <row r="139" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="8"/>
       <c r="C139" s="1">
         <v>0</v>
@@ -4354,7 +4331,7 @@
       <c r="J139" s="11"/>
       <c r="Q139" s="11"/>
     </row>
-    <row r="140" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="8"/>
       <c r="C140" s="1">
         <v>10</v>
@@ -4368,7 +4345,7 @@
       <c r="J140" s="11"/>
       <c r="Q140" s="11"/>
     </row>
-    <row r="141" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="8"/>
       <c r="C141" s="1">
         <v>20</v>
@@ -4382,7 +4359,7 @@
       <c r="J141" s="11"/>
       <c r="Q141" s="11"/>
     </row>
-    <row r="142" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="8"/>
       <c r="C142" s="1">
         <v>30</v>
@@ -4396,7 +4373,7 @@
       <c r="J142" s="11"/>
       <c r="Q142" s="11"/>
     </row>
-    <row r="143" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="8"/>
       <c r="C143" s="1">
         <v>40</v>
@@ -4410,7 +4387,7 @@
       <c r="J143" s="11"/>
       <c r="Q143" s="11"/>
     </row>
-    <row r="144" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="8"/>
       <c r="C144" s="1">
         <v>50</v>
@@ -4424,7 +4401,7 @@
       <c r="J144" s="11"/>
       <c r="Q144" s="11"/>
     </row>
-    <row r="145" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="8"/>
       <c r="C145" s="1">
         <v>60</v>
@@ -4438,7 +4415,7 @@
       <c r="J145" s="11"/>
       <c r="Q145" s="11"/>
     </row>
-    <row r="146" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="8"/>
       <c r="C146" s="1">
         <v>70</v>
@@ -4452,7 +4429,7 @@
       <c r="J146" s="11"/>
       <c r="Q146" s="11"/>
     </row>
-    <row r="147" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="8"/>
       <c r="C147" s="1">
         <v>80</v>
@@ -4466,7 +4443,7 @@
       <c r="J147" s="11"/>
       <c r="Q147" s="11"/>
     </row>
-    <row r="148" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="8"/>
       <c r="C148" s="1">
         <v>90</v>
@@ -4480,7 +4457,7 @@
       <c r="J148" s="11"/>
       <c r="Q148" s="11"/>
     </row>
-    <row r="149" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="8"/>
       <c r="C149" s="1" t="s">
         <v>151</v>
@@ -4497,12 +4474,12 @@
       <c r="J149" s="11"/>
       <c r="Q149" s="11"/>
     </row>
-    <row r="150" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="8"/>
       <c r="J150" s="11"/>
       <c r="Q150" s="11"/>
     </row>
-    <row r="151" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -4526,7 +4503,7 @@
       </c>
       <c r="Q151" s="11"/>
     </row>
-    <row r="152" spans="1:17" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>133</v>
       </c>
@@ -4534,46 +4511,46 @@
       <c r="J152" s="11"/>
       <c r="Q152" s="11"/>
     </row>
-    <row r="153" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="8"/>
       <c r="J153" s="11"/>
       <c r="Q153" s="11"/>
     </row>
-    <row r="154" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="16" t="s">
         <v>157</v>
       </c>
       <c r="J154" s="11"/>
       <c r="Q154" s="11"/>
     </row>
-    <row r="155" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C155" s="40" t="s">
+      <c r="C155" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D155" s="41" t="s">
+      <c r="D155" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="E155" s="41"/>
-      <c r="F155" s="41"/>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="42" t="s">
+      <c r="E155" s="49"/>
+      <c r="F155" s="49"/>
+      <c r="G155" s="49"/>
+      <c r="H155" s="49"/>
+      <c r="I155" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="J155" s="43"/>
-      <c r="K155" s="42"/>
-      <c r="L155" s="42"/>
-      <c r="M155" s="42"/>
-      <c r="N155" s="42"/>
-      <c r="O155" s="42"/>
-      <c r="P155" s="42"/>
-      <c r="Q155" s="43"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="39"/>
+      <c r="L155" s="39"/>
+      <c r="M155" s="39"/>
+      <c r="N155" s="39"/>
+      <c r="O155" s="39"/>
+      <c r="P155" s="39"/>
+      <c r="Q155" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4588,211 +4565,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="43"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="43"/>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="43"/>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="43"/>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="43"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="48"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="C14" s="43"/>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="48"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="C15" s="43"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="48"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="48"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="C17" s="43"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="48"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="C18" s="43"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="48"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="C19" s="43"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="48"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="51" t="s">
+      <c r="C21" s="43"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="48"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="48"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="48"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="48"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="48"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="48"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="48"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="48"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="48"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="48"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="48"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="48"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4800,96 +4777,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>163</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B5" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
